--- a/data/raw/comptages_terrain/activites_loisirs/us_med_pnmcca_observatoire_comptage_terrain_activites_loisirs_2023-09-06.xlsx
+++ b/data/raw/comptages_terrain/activites_loisirs/us_med_pnmcca_observatoire_comptage_terrain_activites_loisirs_2023-09-06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="5"/>
+    <workbookView windowWidth="20310" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="9" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <t>Promenade en mer</t>
   </si>
   <si>
-    <t>1 parachute</t>
+    <t>Autre : parachute</t>
   </si>
 </sst>
 </file>
@@ -2406,8 +2406,8 @@
   <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4571428571429" defaultRowHeight="26.25" outlineLevelRow="5"/>
@@ -2416,7 +2416,7 @@
     <col min="2" max="14" width="24.152380952381" style="1" customWidth="1"/>
     <col min="15" max="15" width="39.4857142857143" style="1" customWidth="1"/>
     <col min="16" max="16" width="42.847619047619" style="1" customWidth="1"/>
-    <col min="17" max="17" width="24.152380952381" style="1" customWidth="1"/>
+    <col min="17" max="17" width="54.647619047619" style="1" customWidth="1"/>
     <col min="18" max="16384" width="11.4571428571429" style="1"/>
   </cols>
   <sheetData>
@@ -2533,25 +2533,27 @@
       <c r="J3" s="13">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="13">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13">
-        <v>0</v>
-      </c>
-      <c r="O3" s="13">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="13"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="69.75" customHeight="1" spans="1:17">
       <c r="A4" s="12">
@@ -3193,7 +3195,7 @@
   <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
